--- a/Data/Display Name.xlsx
+++ b/Data/Display Name.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john.kuang\Documents\Work\01. Project\Startup\payequity\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87E45F0-9062-4F61-90E3-CFFDF5F6B1F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E179EC-E75D-4E38-BEDE-01AB5FF23F6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{D6D01C2C-D3DE-4090-AB91-2DBE71088887}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{D6D01C2C-D3DE-4090-AB91-2DBE71088887}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Standard_Col" sheetId="1" r:id="rId1"/>
+    <sheet name="Gender" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>SNAPSHOT_DATE</t>
   </si>
@@ -141,6 +142,33 @@
   </si>
   <si>
     <t>Country</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Non-Binary</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>GENDER_NAME</t>
   </si>
 </sst>
 </file>
@@ -494,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC31CC0-326A-4F1B-806F-96708087B4CB}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -651,4 +679,62 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD1EC235-E99A-48B8-821B-6D4800F62DD1}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/Display Name.xlsx
+++ b/Data/Display Name.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john.kuang\Documents\Work\01. Project\Startup\payequity\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E179EC-E75D-4E38-BEDE-01AB5FF23F6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE60289D-41CF-4B5A-AB61-A6B4B80D076D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{D6D01C2C-D3DE-4090-AB91-2DBE71088887}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>SNAPSHOT_DATE</t>
   </si>
@@ -169,6 +169,12 @@
   </si>
   <si>
     <t>GENDER_NAME</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>Unknown</t>
   </si>
 </sst>
 </file>
@@ -683,10 +689,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD1EC235-E99A-48B8-821B-6D4800F62DD1}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -728,9 +734,17 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>39</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>43</v>
       </c>
     </row>

--- a/Data/Display Name.xlsx
+++ b/Data/Display Name.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john.kuang\Documents\Work\01. Project\Startup\payequity\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE60289D-41CF-4B5A-AB61-A6B4B80D076D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB870638-4C9B-401B-BE43-20186204EF03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{D6D01C2C-D3DE-4090-AB91-2DBE71088887}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{D6D01C2C-D3DE-4090-AB91-2DBE71088887}"/>
   </bookViews>
   <sheets>
     <sheet name="Standard_Col" sheetId="1" r:id="rId1"/>
-    <sheet name="Gender" sheetId="2" r:id="rId2"/>
+    <sheet name="Custom_Col" sheetId="3" r:id="rId2"/>
+    <sheet name="Gender" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
   <si>
     <t>SNAPSHOT_DATE</t>
   </si>
@@ -175,16 +176,55 @@
   </si>
   <si>
     <t>Unknown</t>
+  </si>
+  <si>
+    <t>REQUIRE</t>
+  </si>
+  <si>
+    <t>PAY_DRIVER_2</t>
+  </si>
+  <si>
+    <t>PAY_DRIVER_1</t>
+  </si>
+  <si>
+    <t>PAY_DRIVER_3</t>
+  </si>
+  <si>
+    <t>PAY_DRIVER_4</t>
+  </si>
+  <si>
+    <t>PAY_DRIVER_5</t>
+  </si>
+  <si>
+    <t>PAY_DRIVER_6</t>
+  </si>
+  <si>
+    <t>PAY_DRIVER_7</t>
+  </si>
+  <si>
+    <t>PAY_DRIVER_8</t>
+  </si>
+  <si>
+    <t>PAY_DRIVER_9</t>
+  </si>
+  <si>
+    <t>PAY_DRIVER_10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -526,11 +566,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC31CC0-326A-4F1B-806F-96708087B4CB}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -538,148 +576,202 @@
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
       <c r="B1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>34</v>
       </c>
       <c r="B9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>29</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
       <c r="B13" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>9</v>
       </c>
       <c r="B14" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>10</v>
       </c>
       <c r="B15" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>11</v>
       </c>
       <c r="B16" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>12</v>
       </c>
       <c r="B17" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>13</v>
       </c>
       <c r="B18" t="s">
         <v>28</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -688,10 +780,84 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4246E222-5EAA-4CFA-95B1-28858624D86E}">
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD1EC235-E99A-48B8-821B-6D4800F62DD1}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
